--- a/csv/enemies.dict.xlsx
+++ b/csv/enemies.dict.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960"/>
+    <workbookView windowHeight="21860"/>
   </bookViews>
   <sheets>
     <sheet name="enemies.dict" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -28,10 +28,10 @@
     <t>attr.MaxHp</t>
   </si>
   <si>
-    <t>attr.Damage</t>
-  </si>
-  <si>
-    <t>attr.Armor</t>
+    <t>attr.Atk</t>
+  </si>
+  <si>
+    <t>attr.Def</t>
   </si>
   <si>
     <t>attr.Speed</t>
@@ -64,6 +64,9 @@
     <t>drop.Blood.Rate</t>
   </si>
   <si>
+    <t>drop.Item</t>
+  </si>
+  <si>
     <t>first_wave</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>float</t>
   </si>
   <si>
+    <t>list</t>
+  </si>
+  <si>
     <t>#怪物编号</t>
   </si>
   <si>
@@ -124,6 +130,9 @@
     <t>#血量</t>
   </si>
   <si>
+    <t>掉落数据 （[[ itemid, p, param ]]）TODO 看看咋配</t>
+  </si>
+  <si>
     <t>#最早出现时机</t>
   </si>
   <si>
@@ -136,6 +145,9 @@
     <t>BloodBag</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>Enemy2</t>
   </si>
   <si>
@@ -157,13 +169,7 @@
     <t>Enemy5</t>
   </si>
   <si>
-    <t>Coin5</t>
-  </si>
-  <si>
     <t>EnemyBoss1</t>
-  </si>
-  <si>
-    <t>Coin6</t>
   </si>
 </sst>
 </file>
@@ -172,8 +178,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -216,6 +222,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -223,7 +283,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,6 +320,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -244,90 +334,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -338,25 +344,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,37 +512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,115 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,17 +556,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,32 +595,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -629,90 +609,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,58 +727,58 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1102,15 +1108,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="4" max="4" width="15.0576923076923" customWidth="1"/>
+    <col min="5" max="5" width="12.8173076923077" customWidth="1"/>
+    <col min="6" max="6" width="12.6538461538462" customWidth="1"/>
+    <col min="8" max="8" width="20.5096153846154" customWidth="1"/>
+    <col min="9" max="9" width="16.1826923076923" customWidth="1"/>
+    <col min="10" max="10" width="21.3076923076923" customWidth="1"/>
+    <col min="11" max="11" width="24.1923076923077" customWidth="1"/>
+    <col min="12" max="12" width="23.7115384615385" customWidth="1"/>
+    <col min="13" max="13" width="20.3461538461538" customWidth="1"/>
+    <col min="14" max="14" width="22.2692307692308" customWidth="1"/>
+    <col min="15" max="15" width="23.2403846153846" customWidth="1"/>
+    <col min="16" max="16" width="16.1826923076923" customWidth="1"/>
+    <col min="17" max="17" width="51.6057692307692" customWidth="1"/>
+    <col min="18" max="18" width="25.4807692307692" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1162,122 +1184,131 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" ht="38" customHeight="1" spans="1:18">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>50</v>
@@ -1301,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -1310,7 +1341,7 @@
         <v>0.3</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O4">
         <v>50</v>
@@ -1318,19 +1349,22 @@
       <c r="P4">
         <v>0.1</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
         <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
       </c>
       <c r="D5">
         <v>80</v>
@@ -1354,7 +1388,7 @@
         <v>5</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -1362,19 +1396,22 @@
       <c r="M5">
         <v>0.2</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>120</v>
@@ -1398,7 +1435,7 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1407,7 +1444,7 @@
         <v>0.4</v>
       </c>
       <c r="N6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O6">
         <v>50</v>
@@ -1415,19 +1452,22 @@
       <c r="P6">
         <v>0.1</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>150</v>
@@ -1451,7 +1491,7 @@
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -1459,19 +1499,22 @@
       <c r="M7">
         <v>0.4</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>200</v>
@@ -1495,7 +1538,7 @@
         <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -1503,19 +1546,22 @@
       <c r="M8">
         <v>0.5</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>800</v>
@@ -1547,7 +1593,10 @@
       <c r="M9">
         <v>0.2</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R9">
         <v>1</v>
       </c>
     </row>
